--- a/Scenarios.xlsx
+++ b/Scenarios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven.VOLERY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven.VOLERY\Documents\GitHub\Bataille-Navale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="6405" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="6405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jouer" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>Il a touché mon bateau ?</t>
   </si>
   <si>
-    <t>L'utilisateur veut changer de mot de passe ?</t>
-  </si>
-  <si>
     <t>Demande de l'ancien nom d'utilisateur puis le nouveau</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>La liste des scores se ferme et le menu s'affiche</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut changer de nom d'utlisateur ?</t>
   </si>
 </sst>
 </file>
@@ -517,6 +517,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,14 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,10 +785,10 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -800,12 +800,12 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="43"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
@@ -871,7 +871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D7" s="18"/>
       <c r="E7" s="20" t="s">
         <v>41</v>
@@ -879,7 +879,7 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E8" s="25"/>
       <c r="F8" s="20" t="s">
         <v>43</v>
@@ -888,7 +888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E9" s="25"/>
       <c r="F9" s="20" t="s">
         <v>45</v>
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E10" s="25"/>
       <c r="F10" s="20" t="s">
         <v>47</v>
@@ -906,7 +906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E11" s="25"/>
       <c r="F11" s="20" t="s">
         <v>50</v>
@@ -951,7 +951,7 @@
         <v>49</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -960,160 +960,160 @@
         <v>53</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="25"/>
       <c r="F18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>65</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C22" s="38"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="18"/>
       <c r="C23" s="39"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="18"/>
       <c r="C24" s="39"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
       <c r="C25" s="39"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
       <c r="C26" s="39"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="18"/>
       <c r="C27" s="39"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C28" s="38"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="18"/>
       <c r="C29" s="39"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="18"/>
       <c r="C30" s="39"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="18"/>
       <c r="C31" s="39"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
       <c r="C32" s="39"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="18"/>
       <c r="C33" s="39"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="18"/>
       <c r="C36" s="39"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="18"/>
       <c r="C37" s="39"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="18"/>
       <c r="C38" s="39"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
     </row>
     <row r="39" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="18"/>
       <c r="C39" s="39"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
     </row>
     <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
       <c r="C40" s="39"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="50"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D41" s="50"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="50"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="40"/>
     </row>
     <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D42" s="50"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="50"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D43" s="50"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="50"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="40"/>
     </row>
     <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D44" s="50"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="50"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="40"/>
     </row>
     <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D45" s="50"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="50"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="40"/>
     </row>
     <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D46" s="50"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="50"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="40"/>
     </row>
     <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D47" s="50"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="50"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="40"/>
     </row>
     <row r="48" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D48" s="50"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="50"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="40"/>
     </row>
     <row r="49" spans="4:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D49" s="50"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="50"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1131,13 +1131,15 @@
   </sheetPr>
   <dimension ref="B1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1145,10 +1147,10 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
@@ -1160,10 +1162,10 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="47"/>
       <c r="M2" s="8"/>
       <c r="N2" s="10"/>
       <c r="O2" s="12"/>
@@ -1241,7 +1243,7 @@
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="44"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="31" t="s">
         <v>49</v>
       </c>
@@ -1253,14 +1255,14 @@
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="45"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="31" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="40"/>
+      <c r="M8" s="44"/>
       <c r="N8" s="34"/>
       <c r="O8" s="10"/>
     </row>
@@ -1270,14 +1272,14 @@
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="M9" s="41"/>
+      <c r="M9" s="45"/>
       <c r="N9" s="34"/>
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="44"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="29" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G10" s="21"/>
       <c r="M10" s="28"/>
@@ -1285,31 +1287,31 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="46"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="31" t="s">
         <v>53</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="40"/>
+        <v>61</v>
+      </c>
+      <c r="M11" s="44"/>
       <c r="N11" s="10"/>
       <c r="O11" s="12"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="45"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="31" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="41"/>
+        <v>66</v>
+      </c>
+      <c r="M12" s="45"/>
       <c r="N12" s="34"/>
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M13" s="41"/>
+      <c r="M13" s="45"/>
       <c r="N13" s="34"/>
       <c r="O13" s="10"/>
     </row>
@@ -1333,7 +1335,7 @@
   </sheetPr>
   <dimension ref="B1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1348,21 +1350,21 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
@@ -1394,7 +1396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>15</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
@@ -1422,7 +1424,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>31</v>
       </c>
@@ -1435,7 +1437,7 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
@@ -1500,7 +1502,7 @@
   </sheetPr>
   <dimension ref="B1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1513,31 +1515,31 @@
     <col min="13" max="13" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="43"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -1559,10 +1561,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>73</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="29" t="s">
@@ -1574,7 +1576,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -1587,41 +1589,41 @@
         <v>31</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>75</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>76</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K25" s="10"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="41"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K26" s="10"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
     </row>
     <row r="27" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K27" s="10"/>
